--- a/Resources/DataSheets/goruBankSiteLogin.xlsx
+++ b/Resources/DataSheets/goruBankSiteLogin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F4B8C-495F-46ED-BE68-2D2AF7D1E128}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C7907-4BF1-4317-8800-1F6C8D48AE2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="2148" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
   </si>
   <si>
     <t>mngr202739</t>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -50,12 +50,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,35 +359,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
